--- a/IF定義書フォーマット.xlsx
+++ b/IF定義書フォーマット.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NJUN\Documents\仕事\FMAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NJUN\Desktop\IF定義書フォーマット\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,10 +14,10 @@
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
     <sheet name="IF" sheetId="1" r:id="rId2"/>
-    <sheet name="構造体" sheetId="2" r:id="rId3"/>
+    <sheet name="クラス" sheetId="2" r:id="rId3"/>
     <sheet name="定数" sheetId="3" r:id="rId4"/>
     <sheet name="IF (記入例)" sheetId="5" r:id="rId5"/>
-    <sheet name="構造体 (記入例)" sheetId="6" r:id="rId6"/>
+    <sheet name="クラス (記入例)" sheetId="6" r:id="rId6"/>
     <sheet name="定数 (記入例)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -520,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,43 +539,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -892,7 +895,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:H10"/>
+  <dimension ref="C1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -901,31 +904,33 @@
     <col min="2" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+    <row r="1" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="4:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="8" spans="4:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="8" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
       <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="4:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G10" s="4" t="s">
         <v>14</v>
       </c>
@@ -945,7 +950,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -962,19 +969,19 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -982,7 +989,7 @@
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C3" s="16">
+      <c r="C3" s="8">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
@@ -990,11 +997,11 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="17"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C4" s="16">
+      <c r="C4" s="8">
         <f t="shared" ref="C4:C11" si="0">ROW()-2</f>
         <v>2</v>
       </c>
@@ -1003,10 +1010,10 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="17"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C5" s="16">
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1015,10 +1022,10 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="17"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C6" s="16">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1027,10 +1034,10 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="17"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C7" s="16">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1039,10 +1046,10 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C8" s="16">
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1051,10 +1058,10 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C9" s="16">
+      <c r="C9" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1063,10 +1070,10 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="16">
+      <c r="C10" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1075,10 +1082,10 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="16">
+      <c r="C11" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1087,18 +1094,18 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C12" s="4">
         <f>ROW()-2</f>
         <v>10</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="5"/>
     </row>
   </sheetData>
@@ -1124,7 +1131,7 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1132,68 +1139,68 @@
       </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C3" s="16"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="17"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C4" s="16"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="17"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C5" s="16"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C6" s="16"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="17"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C7" s="16"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C8" s="16"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C9" s="16"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="17"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C10" s="16"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C11" s="16"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="17"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C12" s="16"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C13" s="16"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C14" s="16"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="3:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C15" s="4"/>
-      <c r="D15" s="18"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="5"/>
     </row>
   </sheetData>
@@ -1219,10 +1226,10 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1230,45 +1237,45 @@
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C3" s="16"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="17"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C4" s="16"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="17"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C5" s="16"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C6" s="16"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C7" s="16"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="17"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C8" s="16"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C9" s="4"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="5"/>
     </row>
   </sheetData>
@@ -1298,19 +1305,19 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -1318,7 +1325,7 @@
       </c>
     </row>
     <row r="3" spans="3:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C3" s="16">
+      <c r="C3" s="8">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
@@ -1334,13 +1341,13 @@
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="17"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C4" s="16">
+      <c r="C4" s="8">
         <f t="shared" ref="C4:C11" si="0">ROW()-2</f>
         <v>2</v>
       </c>
@@ -1349,10 +1356,10 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="17"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C5" s="16">
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1361,10 +1368,10 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="17"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C6" s="16">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1373,10 +1380,10 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="17"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C7" s="16">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1385,10 +1392,10 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C8" s="16">
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1397,10 +1404,10 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C9" s="16">
+      <c r="C9" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1409,10 +1416,10 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="16">
+      <c r="C10" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1421,10 +1428,10 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="16">
+      <c r="C11" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1433,18 +1440,18 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C12" s="4">
         <f>ROW()-2</f>
         <v>10</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="5"/>
     </row>
   </sheetData>
@@ -1470,7 +1477,7 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1478,84 +1485,84 @@
       </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C6" s="16"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="17"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C7" s="16"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C8" s="16"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C9" s="16"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="17"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C10" s="16"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C11" s="16"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="17"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C12" s="16"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C13" s="16"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C14" s="16"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="3:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C15" s="4"/>
-      <c r="D15" s="18"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="5"/>
     </row>
   </sheetData>
@@ -1582,10 +1589,10 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1593,7 +1600,7 @@
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1602,12 +1609,12 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1616,12 +1623,12 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1630,12 +1637,12 @@
       <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1644,12 +1651,12 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1658,12 +1665,12 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1672,7 +1679,7 @@
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1680,10 +1687,10 @@
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="10">
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
